--- a/data/output/FV2410_FV2404/UTILMD/55215.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55215.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4770" uniqueCount="412">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="412">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1361,6 +1361,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U210" totalsRowShown="0">
+  <autoFilter ref="A1:U210"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1650,7 +1680,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11851,5 +11884,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55215.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55215.xlsx
@@ -2401,7 +2401,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4507,7 +4507,7 @@
         <v>388</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4827,7 +4827,7 @@
         <v>388</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5031,7 +5031,7 @@
         <v>390</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5627,7 +5627,7 @@
         <v>388</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5935,7 +5935,7 @@
         <v>391</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6421,7 +6421,7 @@
         <v>395</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7083,7 +7083,7 @@
         <v>397</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7249,7 +7249,7 @@
         <v>399</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7769,7 +7769,7 @@
         <v>400</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8485,7 +8485,7 @@
         <v>390</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9155,7 +9155,7 @@
         <v>402</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9367,7 +9367,7 @@
         <v>403</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10195,7 +10195,7 @@
         <v>405</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10503,7 +10503,7 @@
         <v>406</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11515,7 +11515,7 @@
         <v>408</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12343,7 +12343,7 @@
         <v>410</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N208" s="2"/>
